--- a/Day-10.04/сводные таблицы 1.xlsx
+++ b/Day-10.04/сводные таблицы 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\Desktop\083_\Day-10.04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B430C07-5975-4ACD-AF41-C54922C15B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555748CA-2BC6-46F7-AF55-33E35DEE4435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="255" windowWidth="28200" windowHeight="15165" xr2:uid="{0705B438-1EE6-4B51-A004-CB063549C503}"/>
+    <workbookView xWindow="-60" yWindow="75" windowWidth="28200" windowHeight="15165" xr2:uid="{0705B438-1EE6-4B51-A004-CB063549C503}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </externalReferences>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId5"/>
+    <pivotCache cacheId="36" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="33">
   <si>
     <t>Клиент</t>
   </si>
@@ -105,6 +105,33 @@
   </si>
   <si>
     <t>Солнечногорск</t>
+  </si>
+  <si>
+    <t>Названия строк</t>
+  </si>
+  <si>
+    <t>Общий итог</t>
+  </si>
+  <si>
+    <t>Названия столбцов</t>
+  </si>
+  <si>
+    <t>Сумма по полю Итого к оплате</t>
+  </si>
+  <si>
+    <t>Сумма по полю Сумма заказа</t>
+  </si>
+  <si>
+    <t>Сумма по полю Стоимость доставки</t>
+  </si>
+  <si>
+    <t>Общая сумма заказов без учета доставки по каждому клиенту</t>
+  </si>
+  <si>
+    <t>доставка по типу и клиенту</t>
+  </si>
+  <si>
+    <t>суммарная стоимость доставки по типу</t>
   </si>
 </sst>
 </file>
@@ -138,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -146,136 +173,27 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -426,28 +344,45 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Denis" refreshedDate="45026.640576041667" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="15" xr:uid="{38D763A5-3973-4D87-ADA5-4AE80DF298E9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Denis" refreshedDate="45026.67841296296" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="15" xr:uid="{38D763A5-3973-4D87-ADA5-4AE80DF298E9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Заказы"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Клиент" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="5">
+        <s v="Иванов"/>
+        <s v="Петров"/>
+        <s v="Сидоров"/>
+        <s v="Грачев"/>
+        <s v="Синицын"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Адрес" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="5">
+        <s v="Москва"/>
+        <s v="Тверь"/>
+        <s v="Зеленоград"/>
+        <s v="Истра"/>
+        <s v="Солнечногорск"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Сумма заказа" numFmtId="4">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="30000" maxValue="30014"/>
     </cacheField>
     <cacheField name="Доставка" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="4">
+        <s v="Курьер Москва"/>
+        <s v="Почта РФ"/>
+        <s v="Пункт выдачи Москва"/>
+        <s v="Пункт выдачи Тверь"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Стоимость доставки" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="300" maxValue="1200"/>
     </cacheField>
     <cacheField name="Итого к оплате" numFmtId="4">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="30307" maxValue="31214"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="30302" maxValue="31213"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -461,139 +396,403 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="15">
   <r>
-    <s v="Иванов"/>
-    <s v="Москва"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="30000"/>
-    <s v="Курьер Москва"/>
+    <x v="0"/>
     <n v="1200"/>
     <n v="31200"/>
   </r>
   <r>
-    <s v="Петров"/>
-    <s v="Тверь"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="30001"/>
-    <s v="Курьер Москва"/>
-    <n v="1200"/>
-    <n v="31201"/>
+    <x v="1"/>
+    <n v="640"/>
+    <n v="30641"/>
   </r>
   <r>
-    <s v="Сидоров"/>
-    <s v="Зеленоград"/>
+    <x v="2"/>
+    <x v="2"/>
     <n v="30002"/>
-    <s v="Курьер Москва"/>
-    <n v="1200"/>
-    <n v="31202"/>
+    <x v="2"/>
+    <n v="300"/>
+    <n v="30302"/>
   </r>
   <r>
-    <s v="Иванов"/>
-    <s v="Москва"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="30003"/>
-    <s v="Почта РФ"/>
+    <x v="1"/>
     <n v="640"/>
     <n v="30643"/>
   </r>
   <r>
-    <s v="Грачев"/>
-    <s v="Истра"/>
+    <x v="3"/>
+    <x v="3"/>
     <n v="30004"/>
-    <s v="Курьер Москва"/>
-    <n v="1200"/>
-    <n v="31204"/>
+    <x v="2"/>
+    <n v="300"/>
+    <n v="30304"/>
   </r>
   <r>
-    <s v="Синицын"/>
-    <s v="Солнечногорск"/>
+    <x v="4"/>
+    <x v="4"/>
     <n v="30005"/>
-    <s v="Курьер Москва"/>
+    <x v="0"/>
     <n v="1200"/>
     <n v="31205"/>
   </r>
   <r>
-    <s v="Грачев"/>
-    <s v="Истра"/>
+    <x v="3"/>
+    <x v="3"/>
     <n v="30006"/>
-    <s v="Курьер Москва"/>
-    <n v="1200"/>
-    <n v="31206"/>
+    <x v="1"/>
+    <n v="640"/>
+    <n v="30646"/>
   </r>
   <r>
-    <s v="Иванов"/>
-    <s v="Москва"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="30007"/>
-    <s v="Пункт выдачи Москва"/>
+    <x v="2"/>
     <n v="300"/>
     <n v="30307"/>
   </r>
   <r>
-    <s v="Сидоров"/>
-    <s v="Зеленоград"/>
+    <x v="2"/>
+    <x v="2"/>
     <n v="30008"/>
-    <s v="Курьер Москва"/>
-    <n v="1200"/>
-    <n v="31208"/>
+    <x v="1"/>
+    <n v="640"/>
+    <n v="30648"/>
   </r>
   <r>
-    <s v="Иванов"/>
-    <s v="Москва"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="30009"/>
-    <s v="Курьер Москва"/>
+    <x v="0"/>
     <n v="1200"/>
     <n v="31209"/>
   </r>
   <r>
-    <s v="Синицын"/>
-    <s v="Солнечногорск"/>
+    <x v="4"/>
+    <x v="4"/>
     <n v="30010"/>
-    <s v="Курьер Москва"/>
-    <n v="1200"/>
-    <n v="31210"/>
+    <x v="1"/>
+    <n v="640"/>
+    <n v="30650"/>
   </r>
   <r>
-    <s v="Грачев"/>
-    <s v="Истра"/>
+    <x v="3"/>
+    <x v="3"/>
     <n v="30011"/>
-    <s v="Курьер Москва"/>
+    <x v="0"/>
     <n v="1200"/>
     <n v="31211"/>
   </r>
   <r>
-    <s v="Сидоров"/>
-    <s v="Зеленоград"/>
+    <x v="2"/>
+    <x v="2"/>
     <n v="30012"/>
-    <s v="Курьер Москва"/>
-    <n v="1200"/>
-    <n v="31212"/>
+    <x v="3"/>
+    <n v="350"/>
+    <n v="30362"/>
   </r>
   <r>
-    <s v="Грачев"/>
-    <s v="Истра"/>
+    <x v="3"/>
+    <x v="3"/>
     <n v="30013"/>
-    <s v="Курьер Москва"/>
+    <x v="0"/>
     <n v="1200"/>
     <n v="31213"/>
   </r>
   <r>
-    <s v="Синицын"/>
-    <s v="Солнечногорск"/>
+    <x v="4"/>
+    <x v="4"/>
     <n v="30014"/>
-    <s v="Курьер Москва"/>
-    <n v="1200"/>
-    <n v="31214"/>
+    <x v="2"/>
+    <n v="300"/>
+    <n v="30314"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CF6F55A2-1F7F-4B13-B62A-487EAE0C5C7F}" name="Сводная таблица5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H3:J20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6407F11A-85BA-4A89-8B97-B013FBE02212}" name="Сводная таблица10" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A23:D29" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="4" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="4" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Сумма по полю Сумма заказа" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Сумма по полю Стоимость доставки" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Сумма по полю Итого к оплате" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{290EDE68-1B7E-4158-9D55-FAF3942AAB06}" name="Сводная таблица9" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H20:I25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="4" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="4" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Сумма по полю Стоимость доставки" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EA3D6C49-B7CA-4467-91D8-EF361C5C6C8A}" name="Сводная таблица8" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H12:N18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="4" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="4" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Сумма по полю Стоимость доставки" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CF6F55A2-1F7F-4B13-B62A-487EAE0C5C7F}" name="Сводная таблица5" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="H3:I9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="4" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="4" showAll="0"/>
   </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Сумма по полю Сумма заказа" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -923,20 +1122,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB89C7B-79BC-4E6D-B857-31DBEF168313}">
-  <dimension ref="A2:J20"/>
+  <dimension ref="A2:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="6" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="23" width="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -955,8 +1166,12 @@
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -978,11 +1193,14 @@
         <f>C3+E3</f>
         <v>31200</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -994,21 +1212,24 @@
         <v>30001</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <f>VLOOKUP(D4,[1]Доставка!A$2:B$100,2,0)</f>
-        <v>1200</v>
+        <v>640</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ref="F4:F17" si="0">C4+E4</f>
-        <v>31201</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>30641</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="5">
+        <v>120034</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1020,21 +1241,24 @@
         <v>30002</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <f>VLOOKUP(D5,[1]Доставка!A$2:B$100,2,0)</f>
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>31202</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>30302</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="5">
+        <v>120019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1056,11 +1280,14 @@
         <f t="shared" si="0"/>
         <v>30643</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="5">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1072,21 +1299,24 @@
         <v>30004</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <f>VLOOKUP(D7,[1]Доставка!A$2:B$100,2,0)</f>
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>31204</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>30304</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="5">
+        <v>90022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1108,11 +1338,14 @@
         <f t="shared" si="0"/>
         <v>31205</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="5">
+        <v>90029</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1124,21 +1357,24 @@
         <v>30006</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <f>VLOOKUP(D9,[1]Доставка!A$2:B$100,2,0)</f>
-        <v>1200</v>
+        <v>640</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>31206</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>30646</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="5">
+        <v>450105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1160,11 +1396,8 @@
         <f t="shared" si="0"/>
         <v>30307</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1176,21 +1409,22 @@
         <v>30008</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <f>VLOOKUP(D11,[1]Доставка!A$2:B$100,2,0)</f>
-        <v>1200</v>
+        <v>640</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>31208</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>30648</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1212,11 +1446,14 @@
         <f t="shared" si="0"/>
         <v>31209</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1228,21 +1465,39 @@
         <v>30010</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <f>VLOOKUP(D13,[1]Доставка!A$2:B$100,2,0)</f>
-        <v>1200</v>
+        <v>640</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>31210</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>30650</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1264,11 +1519,25 @@
         <f t="shared" si="0"/>
         <v>31211</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="5">
+        <v>2400</v>
+      </c>
+      <c r="J14" s="5">
+        <v>2400</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5">
+        <v>1200</v>
+      </c>
+      <c r="N14" s="5">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1280,21 +1549,39 @@
         <v>30012</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <f>VLOOKUP(D15,[1]Доставка!A$2:B$100,2,0)</f>
-        <v>1200</v>
+        <v>350</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>31212</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>30362</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="5">
+        <v>640</v>
+      </c>
+      <c r="J15" s="5">
+        <v>640</v>
+      </c>
+      <c r="K15" s="5">
+        <v>640</v>
+      </c>
+      <c r="L15" s="5">
+        <v>640</v>
+      </c>
+      <c r="M15" s="5">
+        <v>640</v>
+      </c>
+      <c r="N15" s="5">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1316,11 +1603,27 @@
         <f t="shared" si="0"/>
         <v>31213</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="5">
+        <v>300</v>
+      </c>
+      <c r="J16" s="5">
+        <v>300</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5">
+        <v>300</v>
+      </c>
+      <c r="M16" s="5">
+        <v>300</v>
+      </c>
+      <c r="N16" s="5">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1332,46 +1635,215 @@
         <v>30014</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <f>VLOOKUP(D17,[1]Доставка!A$2:B$100,2,0)</f>
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>31214</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>30314</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5">
+        <v>350</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="2">
         <f>SUBTOTAL(109,Заказы[Итого к оплате])</f>
-        <v>466645</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H19" s="6"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H20" s="9"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="11"/>
+        <v>460855</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="5">
+        <v>3340</v>
+      </c>
+      <c r="J18" s="5">
+        <v>3340</v>
+      </c>
+      <c r="K18" s="5">
+        <v>640</v>
+      </c>
+      <c r="L18" s="5">
+        <v>1290</v>
+      </c>
+      <c r="M18" s="5">
+        <v>2140</v>
+      </c>
+      <c r="N18" s="5">
+        <v>10750</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="5">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="5">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="5">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="5">
+        <v>90022</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1290</v>
+      </c>
+      <c r="D24" s="5">
+        <v>91312</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="5">
+        <v>120034</v>
+      </c>
+      <c r="C25" s="5">
+        <v>3340</v>
+      </c>
+      <c r="D25" s="5">
+        <v>123374</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="5">
+        <v>10750</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="5">
+        <v>120019</v>
+      </c>
+      <c r="C26" s="5">
+        <v>3340</v>
+      </c>
+      <c r="D26" s="5">
+        <v>123359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="5">
+        <v>90029</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2140</v>
+      </c>
+      <c r="D27" s="5">
+        <v>92169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="5">
+        <v>30001</v>
+      </c>
+      <c r="C28" s="5">
+        <v>640</v>
+      </c>
+      <c r="D28" s="5">
+        <v>30641</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="5">
+        <v>450105</v>
+      </c>
+      <c r="C29" s="5">
+        <v>10750</v>
+      </c>
+      <c r="D29" s="5">
+        <v>460855</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H19:I19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1381,7 +1853,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
